--- a/Resources/2007/Basic_Percentile_2007.xlsx
+++ b/Resources/2007/Basic_Percentile_2007.xlsx
@@ -1465,7 +1465,7 @@
     <t>Baron Davis</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Andre Iguodala</t>
@@ -1507,7 +1507,7 @@
     <t>Pau Gasol</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Ben Wallace</t>
@@ -1555,16 +1555,16 @@
     <t>Larry Hughes</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
-  </si>
-  <si>
-    <t>Yao Ming*</t>
+    <t>Ray Allen</t>
+  </si>
+  <si>
+    <t>Yao Ming</t>
   </si>
   <si>
     <t>Ruben Patterson</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Monta Ellis</t>
@@ -1681,7 +1681,7 @@
     <t>Tony Allen</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Matt Barnes</t>
@@ -1696,7 +1696,7 @@
     <t>Troy Murphy</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Leandro Barbosa</t>
@@ -1714,7 +1714,7 @@
     <t>Hedo Turkoglu</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Earl Watson</t>
@@ -1867,7 +1867,7 @@
     <t>Udonis Haslem</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Brendan Haywood</t>
@@ -2032,7 +2032,7 @@
     <t>Aaron McKie</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Jose Calderon</t>
@@ -2314,7 +2314,7 @@
     <t>Mardy Collins</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Maurice Taylor</t>
